--- a/data/hotels_by_city/Houston/Houston_shard_178.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_178.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d73745-Reviews-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Days-Inn-By-Wyndham-Baytown-East.h4316129.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1402 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r567282103-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>73745</t>
+  </si>
+  <si>
+    <t>567282103</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r567178465-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>567178465</t>
+  </si>
+  <si>
+    <t>Great place to stay!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, clean rooms. Was VERY impressed with everything at hotel. Nice beds, good a/c, TV and very clean. Will definitely stay again. Lots of restaurants nearby but quiet rooms. Easy access off interstate 10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r563800866-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>563800866</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>I was making my way through Texas and chose this days inn based on reviews and price. I have to say that I was very happy with my stay. The rooms have been renovated and I must admit this is probably the nicest days inn I have stayed at. Larger than average wall mounted TV, comfi bed, new modern furniture. AC worked great and quiet for a wall mounted unit. A few things that kept me from giving 5 stars. The bathroom had not been renovated. The tile and grout was old and could really use replacement or a good regrout would make a huge difference. Secondly the hotel is near a highway and the seal on my room door wasn't the greatest so you can hear some traffic noise but not enough to really bother me, specially once the was on. If they fix the bathrooms, this would be an extremely nice days inn. The rooms would be comparable to a holiday inn or Marriot. For those planning on using the pool, I saw a sign up front that said pool was closed for season, so not sure how long that means. All in all, if in area again, I would definitely consider this days inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I was making my way through Texas and chose this days inn based on reviews and price. I have to say that I was very happy with my stay. The rooms have been renovated and I must admit this is probably the nicest days inn I have stayed at. Larger than average wall mounted TV, comfi bed, new modern furniture. AC worked great and quiet for a wall mounted unit. A few things that kept me from giving 5 stars. The bathroom had not been renovated. The tile and grout was old and could really use replacement or a good regrout would make a huge difference. Secondly the hotel is near a highway and the seal on my room door wasn't the greatest so you can hear some traffic noise but not enough to really bother me, specially once the was on. If they fix the bathrooms, this would be an extremely nice days inn. The rooms would be comparable to a holiday inn or Marriot. For those planning on using the pool, I saw a sign up front that said pool was closed for season, so not sure how long that means. All in all, if in area again, I would definitely consider this days inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r543691024-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>543691024</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Really nice, newly renovated, super location</t>
+  </si>
+  <si>
+    <t>We stopped at the Days Inn, 5021 East Freeway, Baytown, TX for one night. This is a two story hotel just off the East Freeway (# 10) at Garth Road. Easy to get to, plenty of places nearby to get food and fuel. Our room on the 2nd floor is huge. Clean and fresh smelling. Brand new television. Very nice room, very happy customers.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r542850064-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>542850064</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r541586989-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>541586989</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel in a great location</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel a few times over the past ten years but this was the best stay I can remember.  An older property but kept up very well and quite tidy, the owners were out cleaning the parking lot and sidewalks in the early morning hours.  A nice family owned business and convenient to the mall and lots of dining choices, gas stations, Starbucks, etc.  Breakfast at the hotel is pretty continental and pretty basic but this is hardly a deal breaker with the variety of dining choices within shouting distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r504359902-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>504359902</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r504065955-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>504065955</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r495359946-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>495359946</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Baytown - 06132017</t>
+  </si>
+  <si>
+    <t>I stay here once a month. Their service level is always to my satisfaction. Nice people own/work at this Days Inn.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r486721894-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>486721894</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Very Impressed!</t>
+  </si>
+  <si>
+    <t>I had to make a hotel reservation less than a week prior to my stay for a Saturday night.  I did a search and this one had the lowest price of all in the area.  The reviews were great and they were not incorrect!First I messed up my online reservation and called to cancel it.  The gentleman I spoke to was absolutely wonderful and helpful.  The hotel is right off the interstate and easy to find.   The outside isn't impressive, but looks can be deceiving. I arrived early and they allowed me to check in early (1 hour early)  The woman at the front desk was very pleasant and helpful.  The room was very nice, clean and comfortable.  Everything looked fairly new and updated.  They just opened the pool for the season that day, so there was a bit of debry, but the pool and area surrounding it were very nice.They do have a free continental breakfast, I didn't partake but I wanted to mention its offered.  They also have wifi.  Its not lightening fast, but very usable.  Good selection of TV stations as well.I plan on returning to visit Baytown in the future and I will definitely stay at this Days Inn.  I recommend it to anyone looking for a hotel in the area.  Best prices and you won't be disappointed!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>I had to make a hotel reservation less than a week prior to my stay for a Saturday night.  I did a search and this one had the lowest price of all in the area.  The reviews were great and they were not incorrect!First I messed up my online reservation and called to cancel it.  The gentleman I spoke to was absolutely wonderful and helpful.  The hotel is right off the interstate and easy to find.   The outside isn't impressive, but looks can be deceiving. I arrived early and they allowed me to check in early (1 hour early)  The woman at the front desk was very pleasant and helpful.  The room was very nice, clean and comfortable.  Everything looked fairly new and updated.  They just opened the pool for the season that day, so there was a bit of debry, but the pool and area surrounding it were very nice.They do have a free continental breakfast, I didn't partake but I wanted to mention its offered.  They also have wifi.  Its not lightening fast, but very usable.  Good selection of TV stations as well.I plan on returning to visit Baytown in the future and I will definitely stay at this Days Inn.  I recommend it to anyone looking for a hotel in the area.  Best prices and you won't be disappointed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r485972994-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>485972994</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay in Baytown</t>
+  </si>
+  <si>
+    <t>We had an enjoyable time at Days Inn Baytown.  Pleasantly surprised by the update of the guestroom décor and furnishings. (This is the third time we have stayed there)  Very quiet even though very near I-10 and lots of truck traffic. New TV worked great. only problems were, the bathroom while very clean and functional had some peeling paint (water must have leaked) and the wired internet did not work but the Wi-Fi was excellent and very usable.  Neal and his crew were very gracious and helpful!!!!  Best value in Baytown by far.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r484676720-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>484676720</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Sadly disappointed.</t>
+  </si>
+  <si>
+    <t>Disappointed after reading good reviews. No crib, even after I requested one, for my son so me and my husband didn't get any sleep. Room smelled funny and the bathroom floor was dirty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r469623256-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>469623256</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r466299023-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>466299023</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Baytown stay - 03/07/2017</t>
+  </si>
+  <si>
+    <t>I stay at this Days Inn usually once a month. My treatment is always the same - GOOD! Nice people run this Inn. I like them.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r463524119-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>463524119</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable for a night</t>
+  </si>
+  <si>
+    <t>I would not want to stay there for a lot of nights, but it was clean and comfortable for a night. It was a motel, with people walking up and down outside the door, so the lack of sound insulation and the lack of weather sealing on the doors was a problem when those people were talking in their OUTside voices, and they were outside. The only other thing was they shut the breakfast down at 9 am on Sunday. Most hotels extend the breakfast hours on Sunday, but theirs was only 6-9. We missed it as we were out late the night before.  But there was a Denny's and a Starbuck's close by so we went to those places. I probably wouldn't choose them again, but the price was super low. My friend felt the beds were too hard and she had to do stretches to get the kinks out the following morning. The wifi pass code was insanely long.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I would not want to stay there for a lot of nights, but it was clean and comfortable for a night. It was a motel, with people walking up and down outside the door, so the lack of sound insulation and the lack of weather sealing on the doors was a problem when those people were talking in their OUTside voices, and they were outside. The only other thing was they shut the breakfast down at 9 am on Sunday. Most hotels extend the breakfast hours on Sunday, but theirs was only 6-9. We missed it as we were out late the night before.  But there was a Denny's and a Starbuck's close by so we went to those places. I probably wouldn't choose them again, but the price was super low. My friend felt the beds were too hard and she had to do stretches to get the kinks out the following morning. The wifi pass code was insanely long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r456339859-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>456339859</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Nice, clean and quiet. I was able to rest well.</t>
+  </si>
+  <si>
+    <t>Working almost an hour away from home, this is my first choice for overnight stay. Excellent service from staff. Quiet and clean hotel always</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r454997441-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>454997441</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r452798000-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>452798000</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Nice find in Baytown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was clean, the price affordable and the front desk help friendly.  Can you ask for more?OK, more.  The layout of the room and the thoughtfulness in setting it up for convenience and ability to work was nice.  The bed was comfortable and the decor bright and cheerful. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r439270800-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>439270800</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice and clean </t>
+  </si>
+  <si>
+    <t>Checked in for the night, they did honor my triple a discount which was cool, and the room was as nice as the one in the picture. Very nice, good price. Did have a little trouble with the shower, and the hair dryer, but all in all it was a nice quiet place to stay and the staff were very friendly. We would definitely stay again at this hotel.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r435814912-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>435814912</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Older hotel with many renovations.  May not seem real great, but it's a nice place and I'd stay there again</t>
+  </si>
+  <si>
+    <t>Older hotel with many renovations.  May not seem real great, but it's a nice place and I'd stay there again.  Bed was comfortable, breakfast was adequate and the overall stay was good.  The clerk (or manager, not sure?) went out of his way to help us and gave us an upgrade room the one that we booked through Trip Advisor/Booking.com and gave us a 2 room sweet. That was a nice and unexpected gesture and truly appreciated.  Pros: All listed above.  Cons:  Door looked like it had been busted in a few times and wasn't repaired in the best fashion so safety was a little touchy there.  If you're a paranoid person (which I usually am, but we were there late and just sleeping and leaving in the morning) this may not be the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Older hotel with many renovations.  May not seem real great, but it's a nice place and I'd stay there again.  Bed was comfortable, breakfast was adequate and the overall stay was good.  The clerk (or manager, not sure?) went out of his way to help us and gave us an upgrade room the one that we booked through Trip Advisor/Booking.com and gave us a 2 room sweet. That was a nice and unexpected gesture and truly appreciated.  Pros: All listed above.  Cons:  Door looked like it had been busted in a few times and wasn't repaired in the best fashion so safety was a little touchy there.  If you're a paranoid person (which I usually am, but we were there late and just sleeping and leaving in the morning) this may not be the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r431892954-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>431892954</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>My stay at the Baytown Days Inn - 10/18/16</t>
+  </si>
+  <si>
+    <t>I stay at this Days Inn regularly. The people there take good care of me. The rooms are clean, comfortable and reasonably priced. I plan to stay there in November.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r418229384-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>418229384</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here on 9-12-16. This looks like an older hotel from the outside but the room was updated and very clean. The bed was comfortable and the furnishings were nice. Noise from the highway was a little loud but not enough to not stay here again. Will stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r415447628-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>415447628</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This hotel is very clean, easy to get to and the staff is very friendly and helpful!! It's very convenient to get there after along drive. Room was nice and cool when checking in. Price was perfect and got more than what I paid for.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r415423869-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>415423869</t>
+  </si>
+  <si>
+    <t>One Night Stay</t>
+  </si>
+  <si>
+    <t>Very nice place to stay.  We arrived early and the staff was able to accommodate us before check in time.  The rooms were great and we enjoyed our stay.Vivian</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r404215073-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>404215073</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Really Nice!</t>
+  </si>
+  <si>
+    <t>After a long day of travel, it was nice to come to a place where the employees were very nice, welcoming with a smile and accommodating to needs. The room was clean and fresh. The rate was excellent for one so close to the Interstate. I would recommend this site to anyone.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r397536318-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>397536318</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r397001300-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>397001300</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>very good stay</t>
+  </si>
+  <si>
+    <t>We had a very good stay at this hotel. It was clean and the rates were good. Only a few problems with it- One of the two beds were very soft and comfortable while the other one was hard and stiff. The air conditioner was too loud. But these things were minor. The room was VERY quiet- even with a full hotel both nights. It was cool and it was clean. Breakfast was nice. I would definitely recommend it and would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r379100844-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>379100844</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Nice Suite</t>
+  </si>
+  <si>
+    <t>Made reservations for two.  Didn't know they had suites, so was surprised when they offered.  Always try to stay at the Days Inn when in Baytown.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r366363799-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>366363799</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>The room clean and the bed was very comfortable , the motel...</t>
+  </si>
+  <si>
+    <t>The room clean and the bed was very comfortable , the motel was very easy to assess the by pass to get around town.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r363626309-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>363626309</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>A hint of nostalgia</t>
+  </si>
+  <si>
+    <t>I have absolutely nothing bad to say about this place. While not a luxury hotel , it offers clean rooms with everything in working condition. You feel you  moved back in time, where all hotels offered the same standard. I have been to Days Inn that was a total disaster, with door locks broken and awful staff. This Days Inn is an example of what should be expected of all hotels bearing this name. The reception lady was extremely, and I mean EXTREMELY helpful. The only problem I see is limited parking space, when you arrive late in the evening you may have a problem.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r355045123-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>355045123</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Stayed here for about a week with our family. Staff was...</t>
+  </si>
+  <si>
+    <t>Stayed here for about a week with our family. Staff was friendly our room was always clean! We had to check out early due to weather heading back home &amp; Neal was wonderful &amp; refunded us for the days we couldn't stay! Will definitely stay again the next time we come to Texas!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r354185739-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>354185739</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent service!!!</t>
+  </si>
+  <si>
+    <t>What a wonderful place this is to stay! Neil was so kind to help us during a very difficult time. We had booked the other Days Inn by accident and found the customer service there inadequate. When I called Neil he was able to accommodate the two rooms we needed as well as provide rooms for family that came in to join us. He made a very difficult time in our lives much easier by providing clean and comfortable rooms. We will definitely be staying here in the future as will our other family members. This hotel is the only place to stay when in Baytown!</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r353540556-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>353540556</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r345192830-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>345192830</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>Quiet &amp; Peaceful</t>
+  </si>
+  <si>
+    <t>My stop over from a long day of riding in a car. Only a two hour drive during the day time next day. Just the right place!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r341309741-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>341309741</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Visit to Houston Area</t>
+  </si>
+  <si>
+    <t>The front desk personnel were extremely courteous.  The room was clean and comfortable.  It was easy access from highway to hotel for all our activities scheduled.  Checkout early the next morning was very efficient</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r330744497-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>330744497</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>1 week work stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The manager was very helpful and assisted in locating a good area for an apartment here in Baytown. Had no issues and the room was clean every day. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r324500702-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>324500702</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r322225931-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>322225931</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r320996530-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>320996530</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Truck driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had enough space for about six trucks. Check in was quick and desk clerk was pleasant. Pillows were a little hard but room was very clean.  Would stay again when I'm back in the area.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r313100077-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>313100077</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>A delightful surprise</t>
+  </si>
+  <si>
+    <t>I stayed at this property several years ago and was hesitant to return due to the age.  I visit Baytown 2-3 times a year (traveling with an academic team for competition at Lee College) and this year (due to some last minute changes in our travel plans) our normal hotel was unavailable and we had to choose the Days Inn.  From the moment I first entered my room, I was impressed.  It appears that the hotel has recently underwent a thorough renovation (not just a coat of paint, but from the carpet/floor tile to the furnishings to the ceiling everything was new &amp; clean).  While the exterior is still that of an older hotel/motel, once inside the room you wouldn't know that you're not at brand new construction.  A delightful surprise and a great price point - we will be staying here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this property several years ago and was hesitant to return due to the age.  I visit Baytown 2-3 times a year (traveling with an academic team for competition at Lee College) and this year (due to some last minute changes in our travel plans) our normal hotel was unavailable and we had to choose the Days Inn.  From the moment I first entered my room, I was impressed.  It appears that the hotel has recently underwent a thorough renovation (not just a coat of paint, but from the carpet/floor tile to the furnishings to the ceiling everything was new &amp; clean).  While the exterior is still that of an older hotel/motel, once inside the room you wouldn't know that you're not at brand new construction.  A delightful surprise and a great price point - we will be staying here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r306039742-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>306039742</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>About as good as you can get in Baytown, unless you want to spend a fortune</t>
+  </si>
+  <si>
+    <t>Stayed here twice in August for business and it was OK. Rooms are clean, basic, no frills, quiet, comfortable. Management is helpful and respectable. Place is mostly filled with oil-field workers who are quiet and leave early and go to bed early, so noise isn't a problem. Room has a coffeemaker, small fridge, micro and is cleaned daily. There are no laundry facilities, so that's somewhat inconvenient if you're here for a period of time. Recently stayed across the street at the ValuePlace, and it was a dump, so don't even go there!! Lots of good places to eat around this hotel and its convenient because it's off the Interstate. I'd say this is your typical DaysInn- no frills, but a decent place for the value. They offer a small breakfast, but I was never able to try it due to work schedule. WiFi is decent, and comes with the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Stayed here twice in August for business and it was OK. Rooms are clean, basic, no frills, quiet, comfortable. Management is helpful and respectable. Place is mostly filled with oil-field workers who are quiet and leave early and go to bed early, so noise isn't a problem. Room has a coffeemaker, small fridge, micro and is cleaned daily. There are no laundry facilities, so that's somewhat inconvenient if you're here for a period of time. Recently stayed across the street at the ValuePlace, and it was a dump, so don't even go there!! Lots of good places to eat around this hotel and its convenient because it's off the Interstate. I'd say this is your typical DaysInn- no frills, but a decent place for the value. They offer a small breakfast, but I was never able to try it due to work schedule. WiFi is decent, and comes with the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r298447956-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>298447956</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r282870995-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>282870995</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Nice place to rest</t>
+  </si>
+  <si>
+    <t>We needed a nice place to rest for the evening and we got it here.  Its a simple motel with most of the people here looking to be working men.  The pool was very nice and clean.  There was no rooms available other than a suite when we got here.  They have us a cut rate on it.  We are very pleased.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r280903815-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>280903815</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r280471887-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>280471887</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r277717901-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>277717901</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be very specific on your reservation. </t>
+  </si>
+  <si>
+    <t>A coworker and I called to reserve two single nonsmoking rooms. After a day in the field that kicked our rear, we showed up to find that all they had left were doubles and we were just too beat too go look for something else. It's not horrible by any means.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r275104957-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>275104957</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r270058570-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>270058570</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Acceptable</t>
+  </si>
+  <si>
+    <t>Only problem was that the a/c unit directed the air directly across the bed and therefore the comfort level was impossible to control.  Basically, just turned the unit off during our sleeping time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r262520421-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>262520421</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Nice clean hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel. Very friendly staff. Plenty of good food in walking distance. Breakfast not for those who have watch their carbs. But then what hotel has a continental breakfast for diabetics.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r261630886-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>261630886</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Well Maintained</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The building is very old. With that mentioned, the staff/facility managers conduct an OUTSTANDING maintenance, cleaning, efficient management program. The staff are exceedingly warm and friendly, competent and assistive. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r258486243-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>258486243</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Well maintained place</t>
+  </si>
+  <si>
+    <t>Older motel located just off I10, but although all rooms face the freeway the noise level wasn't an issue. The room we had, had comfortable beds, but it could use a little renovation here and there. All facilities were very clean and seemed to be very well maintained. Staff was extremely friendly and made us feel more than welcome. Several dining options in walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r249011797-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>249011797</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Love this hotel!</t>
+  </si>
+  <si>
+    <t>As an oilfield truck driver, I spend many nights in Houston hotels. This one is my favorite. Staff is excellent and the while property is exceptionally clean.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r245680867-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>245680867</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>This motel is real convinience for customers</t>
+  </si>
+  <si>
+    <t>I am real please with management and hospitality it makes you feel like home.the beds are real comfortable ,and what I like about the rooms that they are real spacious.the location is perfect, you dont need a cab or any transportation everything us around motel fast food,all kinds of restruants,malls</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r245678896-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>245678896</t>
+  </si>
+  <si>
+    <t>Eric payne ' s visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's the best motel I've been in in a long time they make you feel like you are home safe and secure I don't have to worry about my vehicle or someone bothering me it's quite the rooms are clean the furniture is new the beds are soft just like being at home I would stay here anytime I am in the area </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r243073462-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>243073462</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r241489018-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>241489018</t>
+  </si>
+  <si>
+    <t>11/25/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r241185384-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>241185384</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Motel! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would give five star if check out time is 12:00 and breakfast time at least to 10:00I booked this Motel first time for two nights and I must say that it was pleasant experience.Stuff is friendly, I can tell thay care about this Motel wich gives big plus to management, maintenance and most of all cleaning personal. I must say that I'm picky person when it comes to cleaning and I must say it is to my standards inside and out.Overall, price is just right, I would come back if I'm in area and will recommend it. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r232445914-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>232445914</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Business/Vacation</t>
+  </si>
+  <si>
+    <t>This was a business/vacation trip. We have staye in Days Inns in the past. As with any Motel/Hotel (some are seedy an sub par). This location was great. Very quiet, clean. The staff were very courteous and knowledgeable. We definitely would recommend this business to others. We would stay here again.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r229305004-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>229305004</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r219574026-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>219574026</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Great one night stop</t>
+  </si>
+  <si>
+    <t>This was a one night stop on our way through Houston on I10. I had made the reservation two days ahead and requested a ground floor room, but when we arrived they didn’t know about the request. I usually call the property as soon as the reservation confirmed, to see if they had everything and I didn’t this time and I got caught.
+It was a large pleasant room which was very clean and well appointed. The wall mounted flat screen TV, the refrigerator, and the microwave all looked brand new, but we did not use them, nor did we take advantage of the free breakfast, as we had a breakfast engagement at the Denny’s next door. I don’t usually check these things, but for some of the reviewers, I did not find a hair in the bathtub, a dust bunny under the bed, or a cobweb behind the night stand. I forgot my microscope so cannot comment on the bacteria count on the bathroom floor, but nothing was visible under a 3x magnifying glass.
+The linens were fresh and clean both on the bed and in the bathroom. There was a faint smell (maybe disinfectant) when we first entered the room but 5 minutes of the AC took it away. With the exception of a couple of sirens on nearby I10 it was quiet and, as the beds were comfortable my grandson and I had a refreshing night’s sleep....This was a one night stop on our way through Houston on I10. I had made the reservation two days ahead and requested a ground floor room, but when we arrived they didn’t know about the request. I usually call the property as soon as the reservation confirmed, to see if they had everything and I didn’t this time and I got caught.It was a large pleasant room which was very clean and well appointed. The wall mounted flat screen TV, the refrigerator, and the microwave all looked brand new, but we did not use them, nor did we take advantage of the free breakfast, as we had a breakfast engagement at the Denny’s next door. I don’t usually check these things, but for some of the reviewers, I did not find a hair in the bathtub, a dust bunny under the bed, or a cobweb behind the night stand. I forgot my microscope so cannot comment on the bacteria count on the bathroom floor, but nothing was visible under a 3x magnifying glass.The linens were fresh and clean both on the bed and in the bathroom. There was a faint smell (maybe disinfectant) when we first entered the room but 5 minutes of the AC took it away. With the exception of a couple of sirens on nearby I10 it was quiet and, as the beds were comfortable my grandson and I had a refreshing night’s sleep. The location was very good for us for a one night stand, as there were several restaurants, a gas station and shopping nearby. We walked to Richards Cajun Restaurant for dinner and Denny’s for breakfast.The WiFi internet connection was excellent with a bandwidthplace.com measured download speed of just over 16mbps and slightly less than 8mbps for uploading.The Baytown Days Inn was a great place for an overnight stopover and I would absolutely stay there again and recommend that others do the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This was a one night stop on our way through Houston on I10. I had made the reservation two days ahead and requested a ground floor room, but when we arrived they didn’t know about the request. I usually call the property as soon as the reservation confirmed, to see if they had everything and I didn’t this time and I got caught.
+It was a large pleasant room which was very clean and well appointed. The wall mounted flat screen TV, the refrigerator, and the microwave all looked brand new, but we did not use them, nor did we take advantage of the free breakfast, as we had a breakfast engagement at the Denny’s next door. I don’t usually check these things, but for some of the reviewers, I did not find a hair in the bathtub, a dust bunny under the bed, or a cobweb behind the night stand. I forgot my microscope so cannot comment on the bacteria count on the bathroom floor, but nothing was visible under a 3x magnifying glass.
+The linens were fresh and clean both on the bed and in the bathroom. There was a faint smell (maybe disinfectant) when we first entered the room but 5 minutes of the AC took it away. With the exception of a couple of sirens on nearby I10 it was quiet and, as the beds were comfortable my grandson and I had a refreshing night’s sleep....This was a one night stop on our way through Houston on I10. I had made the reservation two days ahead and requested a ground floor room, but when we arrived they didn’t know about the request. I usually call the property as soon as the reservation confirmed, to see if they had everything and I didn’t this time and I got caught.It was a large pleasant room which was very clean and well appointed. The wall mounted flat screen TV, the refrigerator, and the microwave all looked brand new, but we did not use them, nor did we take advantage of the free breakfast, as we had a breakfast engagement at the Denny’s next door. I don’t usually check these things, but for some of the reviewers, I did not find a hair in the bathtub, a dust bunny under the bed, or a cobweb behind the night stand. I forgot my microscope so cannot comment on the bacteria count on the bathroom floor, but nothing was visible under a 3x magnifying glass.The linens were fresh and clean both on the bed and in the bathroom. There was a faint smell (maybe disinfectant) when we first entered the room but 5 minutes of the AC took it away. With the exception of a couple of sirens on nearby I10 it was quiet and, as the beds were comfortable my grandson and I had a refreshing night’s sleep. The location was very good for us for a one night stand, as there were several restaurants, a gas station and shopping nearby. We walked to Richards Cajun Restaurant for dinner and Denny’s for breakfast.The WiFi internet connection was excellent with a bandwidthplace.com measured download speed of just over 16mbps and slightly less than 8mbps for uploading.The Baytown Days Inn was a great place for an overnight stopover and I would absolutely stay there again and recommend that others do the same.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r213825425-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>213825425</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r212150637-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>212150637</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r211012787-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>211012787</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Outstanding place to stay!</t>
+  </si>
+  <si>
+    <t>I live in Dandridge Tennessee, and I travel through Houston quite often. The Days Inn Baytown is a great place to stay! It is close to everything you could possibly need and it's one of the cleanest hotels I've ever stayed at! I would highly recommend it to anyone!Grant Tolzmann</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r206877228-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>206877228</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r203660847-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203660847</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r203391641-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>203391641</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r193059505-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>193059505</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>The owner is very concerned with cleanliness and maintenance in this motel.  Best motel experience I have ever had at this level of cost.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r192024889-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>192024889</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Excellent Gem in Hiding</t>
+  </si>
+  <si>
+    <t>January 2014 - I called the hotel to book direct since I needed 2 rooms.  I requested ground floor with handicap if possible.  The gentleman on the phone was extremely nice and understanding and the process was very quick.  Our GPS had trouble finding the hotel, so I called them and they were able to tell me exactly how to get there from where I was.  The hotel is hidden behind a Waffle House and Denny's.  You can reach it from either parking lot.  I would highly recommend the hotel.  The staff was excellent.  Anything we needed they were extremely pleasant and seemed to really care about their guest.  Check in was quick and easy.  Room 116 was a 2 queen bed standard room.  Nothing fancy. Standard hotel room. Very clean. Well stocked. Room 120 was a handicap room.  King bed.  This was an extremely nice room with a closet, safe and very large bathroom.  The hotel is quiet and set back from the main road so not any road noise.  There are a lot of contruction workers staying here, so starting about 5am expect to hear a lot of diesel trucks cranking up!  I was very pleased with the hotel.  My husband needed to stay a week for a job and decided to stay at this hotel so we have actually had 2 separate stays here.  I would go back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014 - I called the hotel to book direct since I needed 2 rooms.  I requested ground floor with handicap if possible.  The gentleman on the phone was extremely nice and understanding and the process was very quick.  Our GPS had trouble finding the hotel, so I called them and they were able to tell me exactly how to get there from where I was.  The hotel is hidden behind a Waffle House and Denny's.  You can reach it from either parking lot.  I would highly recommend the hotel.  The staff was excellent.  Anything we needed they were extremely pleasant and seemed to really care about their guest.  Check in was quick and easy.  Room 116 was a 2 queen bed standard room.  Nothing fancy. Standard hotel room. Very clean. Well stocked. Room 120 was a handicap room.  King bed.  This was an extremely nice room with a closet, safe and very large bathroom.  The hotel is quiet and set back from the main road so not any road noise.  There are a lot of contruction workers staying here, so starting about 5am expect to hear a lot of diesel trucks cranking up!  I was very pleased with the hotel.  My husband needed to stay a week for a job and decided to stay at this hotel so we have actually had 2 separate stays here.  I would go back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r191629817-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>191629817</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
+    <t>Days Inn Baytown Texas Highly Recomended</t>
+  </si>
+  <si>
+    <t>I am in construction and I travel for work often. I was in Baytown September of 2013 and stayed at the Days Inn. The property is very nice and kept very clean. The owners are very nice and easy to talk to. They are on site every day so they make sure it stays in top shape. The rooms are up to date with flat screen TV's and WiFi, refrigerators, and microwaves. Their cleaning staff is extremely good. My room was just like the moment I checked in every day after work. The beds are very comfortable and they have lots of pillows to choose from in every room. The site is kept in great shape all the way down to their attention to detail in their sculpted shrubs.The rates were the best for that area. I would strongly recommend a stay at Days Inn if you are in Baytown Texas.Andy.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I am in construction and I travel for work often. I was in Baytown September of 2013 and stayed at the Days Inn. The property is very nice and kept very clean. The owners are very nice and easy to talk to. They are on site every day so they make sure it stays in top shape. The rooms are up to date with flat screen TV's and WiFi, refrigerators, and microwaves. Their cleaning staff is extremely good. My room was just like the moment I checked in every day after work. The beds are very comfortable and they have lots of pillows to choose from in every room. The site is kept in great shape all the way down to their attention to detail in their sculpted shrubs.The rates were the best for that area. I would strongly recommend a stay at Days Inn if you are in Baytown Texas.Andy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r186790438-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>186790438</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I chose this property for its price value and other positive reviews.  The rooms are very clean and the owners are hard working and care about their guests. I am a road warrior and search for hotels like this. Next time I am in this area of Houston I will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r185587644-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>185587644</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>"Best Hotel ever"</t>
+  </si>
+  <si>
+    <t>This is one of the nicest place i've ever been to. great location 5 to 6 walking distance restaurants nice and very clean rooms, comfy beds and very clean breakfast rooms with verity  of food. hotel staff was very helpful, nice and very professional.this days inn in baytown will always be on top of my hotels list i definitely will stay here again. i really appreciate their hospitality.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r181753447-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>181753447</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>The price of the room was a very good.The room was very...</t>
+  </si>
+  <si>
+    <t>The price of the room was a very good.The room was very clean.The internet was very fast The bed was just right</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r178579937-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>178579937</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>Excellent Value and Cleanliness</t>
+  </si>
+  <si>
+    <t>I have currently been staying at Days Inn, Baytown for 5 weeks while working locally.  I also travel for many days out of the year.  The room and amenities compare to many 3-4 star hotels I stay at for $90-$120 a night.  So, for almost half the price, I was very excited to have a nice clean suite.  The hotel is a little older, but you can tell the effort to keep things up to date and clean.  
+The staff is more than friendly and helpful and will make you feel like family.  Tell Neal I sent you and your breakfast will be free. (it's free anyway) 
+ I really have no complaints.  Other than highway traffic, it's been quite.  I haven't had a problem with any other guests or undesirables approaching me.  I feel safe, because the property is fenced, all except for the entrance and exit on the front side.  It's easy to get into and out of (which can be a problem with one way service roads) with access to two roads on a corner.
+There are about 7 restaurants (i.e. Cracker Barrel, Denny's, WH, etc.) and a Starbucks within easy walking distance on the same side of I-10 and San Jacinto Mall and many many many other restaurants just on the other side of I-10 (still easy walking distance).  Within 5 miles (straight up Garth Rd.) is just about any kind of store you could ever need....I have currently been staying at Days Inn, Baytown for 5 weeks while working locally.  I also travel for many days out of the year.  The room and amenities compare to many 3-4 star hotels I stay at for $90-$120 a night.  So, for almost half the price, I was very excited to have a nice clean suite.  The hotel is a little older, but you can tell the effort to keep things up to date and clean.  The staff is more than friendly and helpful and will make you feel like family.  Tell Neal I sent you and your breakfast will be free. (it's free anyway)  I really have no complaints.  Other than highway traffic, it's been quite.  I haven't had a problem with any other guests or undesirables approaching me.  I feel safe, because the property is fenced, all except for the entrance and exit on the front side.  It's easy to get into and out of (which can be a problem with one way service roads) with access to two roads on a corner.There are about 7 restaurants (i.e. Cracker Barrel, Denny's, WH, etc.) and a Starbucks within easy walking distance on the same side of I-10 and San Jacinto Mall and many many many other restaurants just on the other side of I-10 (still easy walking distance).  Within 5 miles (straight up Garth Rd.) is just about any kind of store you could ever need.  Wal-mart, Lowes, Home Depot, electronics stores, clubs, etc. are all about 5 miles up the road.In that same area are two local restaurants I recommend.  Fish Place and Pipeline Grill.  Try the Fish Tacos at FP and you have to try the Ceviche appetizer at Pipeline.At the hotel, Breakfast is free, pool is very nice and clean, workout room is adequate, guest office is great and printing is free.  They will also fax a few pages for nothing if you ask very nicely.  All in all, I give Days Inn, Baytown a 5 because it has everything I need, including great location, in a nice clean package for an extreme value.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I have currently been staying at Days Inn, Baytown for 5 weeks while working locally.  I also travel for many days out of the year.  The room and amenities compare to many 3-4 star hotels I stay at for $90-$120 a night.  So, for almost half the price, I was very excited to have a nice clean suite.  The hotel is a little older, but you can tell the effort to keep things up to date and clean.  
+The staff is more than friendly and helpful and will make you feel like family.  Tell Neal I sent you and your breakfast will be free. (it's free anyway) 
+ I really have no complaints.  Other than highway traffic, it's been quite.  I haven't had a problem with any other guests or undesirables approaching me.  I feel safe, because the property is fenced, all except for the entrance and exit on the front side.  It's easy to get into and out of (which can be a problem with one way service roads) with access to two roads on a corner.
+There are about 7 restaurants (i.e. Cracker Barrel, Denny's, WH, etc.) and a Starbucks within easy walking distance on the same side of I-10 and San Jacinto Mall and many many many other restaurants just on the other side of I-10 (still easy walking distance).  Within 5 miles (straight up Garth Rd.) is just about any kind of store you could ever need....I have currently been staying at Days Inn, Baytown for 5 weeks while working locally.  I also travel for many days out of the year.  The room and amenities compare to many 3-4 star hotels I stay at for $90-$120 a night.  So, for almost half the price, I was very excited to have a nice clean suite.  The hotel is a little older, but you can tell the effort to keep things up to date and clean.  The staff is more than friendly and helpful and will make you feel like family.  Tell Neal I sent you and your breakfast will be free. (it's free anyway)  I really have no complaints.  Other than highway traffic, it's been quite.  I haven't had a problem with any other guests or undesirables approaching me.  I feel safe, because the property is fenced, all except for the entrance and exit on the front side.  It's easy to get into and out of (which can be a problem with one way service roads) with access to two roads on a corner.There are about 7 restaurants (i.e. Cracker Barrel, Denny's, WH, etc.) and a Starbucks within easy walking distance on the same side of I-10 and San Jacinto Mall and many many many other restaurants just on the other side of I-10 (still easy walking distance).  Within 5 miles (straight up Garth Rd.) is just about any kind of store you could ever need.  Wal-mart, Lowes, Home Depot, electronics stores, clubs, etc. are all about 5 miles up the road.In that same area are two local restaurants I recommend.  Fish Place and Pipeline Grill.  Try the Fish Tacos at FP and you have to try the Ceviche appetizer at Pipeline.At the hotel, Breakfast is free, pool is very nice and clean, workout room is adequate, guest office is great and printing is free.  They will also fax a few pages for nothing if you ask very nicely.  All in all, I give Days Inn, Baytown a 5 because it has everything I need, including great location, in a nice clean package for an extreme value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r167662054-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>167662054</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Clean, standard room with very friendly staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for four nights and the room was clean with a microwave, fridge, and other small appliances. Breakfast is from 6 to 9 in the morning. Short drive to Pirate's Bay water park. Walking distance to Starbuck's and Waffle House. The room is a little bit damp, so is the local movie theater. The pool is nice and includes lots of seating options and large umbrellas for shade. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r161441871-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>161441871</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>clean and comfy</t>
+  </si>
+  <si>
+    <t>On a road trip, never sure where we might stay. First impressions were good. The young lady in reception was very helpful, friendly and cheerful. the room was very clean. It also felt very safe as it was family run, someone was always walking around keeping an eye on things. Breakfast was good. Price was reasonable. Guest laundry. swimming pool. Staff very helpful when we needed to call England, even offering their phone for us to use. Location was good for a trip to Galveston, Kemah and the san Jacinto  battleground, all of which we really enjoyed.Pauline and Dave Surrey</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r159088808-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>159088808</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Wonderful experience</t>
+  </si>
+  <si>
+    <t>I can't say enough about the staff at the days inn baytown ..front desk very friendly and helpful ...maids cleanest rooms I have ever seen ...was way more than I expected  and i will book again...Thank you again and keep up the good work......D. Gott</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r157272179-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>157272179</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r154786057-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>154786057</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Days Inn Baytown - stay on 03/12/2013</t>
+  </si>
+  <si>
+    <t>Nice motel at a reasonable price. Convienent to resteraunts. Easy to get to (and from) via I-10. This motel is my first choice when I need to go to Baytown, TX.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r152536825-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>152536825</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r150899872-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>150899872</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r148634261-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>148634261</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>We visited the Days Inn @ 5021 Interstate 10 in Baytown Texas on New Years Eve.  The rooms were neat and clean, the continental breakfast was good (it included waffles) and the beds were very comfortable, and the location was an asset too.  We had asked for adjoining rooms but when we arrived they were not next to each other.  We talked to the desk clerk and he changed our rooms right away.  I was very satisfied with the staff.  I would return to this Days Inn if going through Baytown again.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r143162180-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>143162180</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clerkGood priceAmple parkingVery clean roomHigh quality linens and towelsFive pillows on bedFlat screen HD tv on wallRather slow internetRestaurants next doorDecent stay for a night as a traveler. You will be happy. </t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r143151645-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>143151645</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r143122308-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>143122308</t>
+  </si>
+  <si>
+    <t>Excellent Experience</t>
+  </si>
+  <si>
+    <t>Room was very clean and quite.  Bed was comfortable.  While I was there, they were in the processes of swapping out the old tube style TVs for flat screen TVs.  Even though the motel was in close proximity to the freeway, I could not hear any of the freeway noise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r137568662-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>137568662</t>
+  </si>
+  <si>
+    <t>08/18/2012</t>
+  </si>
+  <si>
+    <t>One night: good, low price.</t>
+  </si>
+  <si>
+    <t>There wasn't anything special about this hotel, except for the price. It was pretty much the exact same experience as our stay the night before in Sonora, TX, but almost 50 dollars cheaper. Front desk was nice, rooms were clean. No issues at all.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r137210183-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>137210183</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Good room, Good breakfast and friendly staff !!!</t>
+  </si>
+  <si>
+    <t>i have stayed many daysinn but this is one off the best one i have stayed.. really impressed with breakfast 7 to 10 different very clean rooms hotel is at perfect location lots off place to eat around the hotel very well maintain and decent price.. front-desk staff was very nice and friendly they made us fell like home away from home which is awesome. We would go back there in a heartbeat. Definitely go there if you are in the houston area. Would def recommmend to friends and will be staying here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r134865719-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>134865719</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Completly satisfied</t>
+  </si>
+  <si>
+    <t>We read the mixed reviews and decided to give the hotel a try. What a pleasant surprise, the bed was comfortable, the room (smoking) smelled fresh, crew was helpful and nice. We would go back there in a heartbeat. Definitely go there if you are in the houston area, the place is worth every penny paid. We opted to not have the continental breakfast simply because we had to be on the road pretty fast so I can't comment on it.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r129425199-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>129425199</t>
+  </si>
+  <si>
+    <t>05/05/2012</t>
+  </si>
+  <si>
+    <t>Easy to find, Friendly, neat and clean ....!!!!!</t>
+  </si>
+  <si>
+    <t>Awesome experience and wonderful stay everything went so well and perfect with cleanliness and friendly environment ..!!! Rooms were cleaned and staff was so friendly ...!!! Days inn in Baytown will be my first priority whnever I'll be in town again ..!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r127500445-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>127500445</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Easy access from I-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, adequate hotel just off I-10. Several good places to eat nearby. Room was ready and stocked with all necessities. Overall good stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d73745-r124692478-Days_Inn_by_Wyndham_Baytown_TX-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>124692478</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Shocked and very pleased!!!</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Days Inn of Baytown, and was pleased with my stay. I must admit, I was very shocked about, how clean and well maintained the place was, after having too stay at a Days Inn before, because of company travel. Due to my previous experience I said: I would start paying for my own room, and vowed never too stay at another Days Inn. Well as luck would have it most of the hotels around I-10 and Garth was full, so swallowing my pride I stop in and was assured after one look that bad taste would leave me and it did. The Days Inn is surrounded by three of the top so called hotels in the hotel industry, and I'm pleased too say, that Days Inn was right there with them as for as comfort, safety, and most importantly the rooms which are very clean. Even though I was very pleased, the only reason I didn't give them an excellent rating is, because I know that no one is perfect therefore, neither is a hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Days Inn of Baytown, and was pleased with my stay. I must admit, I was very shocked about, how clean and well maintained the place was, after having too stay at a Days Inn before, because of company travel. Due to my previous experience I said: I would start paying for my own room, and vowed never too stay at another Days Inn. Well as luck would have it most of the hotels around I-10 and Garth was full, so swallowing my pride I stop in and was assured after one look that bad taste would leave me and it did. The Days Inn is surrounded by three of the top so called hotels in the hotel industry, and I'm pleased too say, that Days Inn was right there with them as for as comfort, safety, and most importantly the rooms which are very clean. Even though I was very pleased, the only reason I didn't give them an excellent rating is, because I know that no one is perfect therefore, neither is a hotel!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1937,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1969,5763 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>114</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>114</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>123</v>
+      </c>
+      <c r="L16" t="s">
+        <v>124</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" t="s">
+        <v>149</v>
+      </c>
+      <c r="K21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" t="s">
+        <v>168</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>169</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" t="s">
+        <v>173</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>169</v>
+      </c>
+      <c r="O25" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" t="s">
+        <v>177</v>
+      </c>
+      <c r="L26" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>179</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" t="s">
+        <v>188</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>183</v>
+      </c>
+      <c r="O28" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" t="s">
+        <v>198</v>
+      </c>
+      <c r="L30" t="s">
+        <v>199</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>200</v>
+      </c>
+      <c r="O30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J31" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" t="s">
+        <v>204</v>
+      </c>
+      <c r="L31" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" t="s">
+        <v>105</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" t="s">
+        <v>210</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33" t="s">
+        <v>216</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" t="s">
+        <v>220</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>211</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" t="s">
+        <v>225</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>211</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K36" t="s">
+        <v>229</v>
+      </c>
+      <c r="L36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>231</v>
+      </c>
+      <c r="O36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>233</v>
+      </c>
+      <c r="J37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" t="s">
+        <v>236</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>237</v>
+      </c>
+      <c r="O37" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" t="s">
+        <v>240</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>241</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>242</v>
+      </c>
+      <c r="O38" t="s">
+        <v>105</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>245</v>
+      </c>
+      <c r="J39" t="s">
+        <v>246</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>242</v>
+      </c>
+      <c r="O39" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" t="s">
+        <v>250</v>
+      </c>
+      <c r="L40" t="s">
+        <v>251</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>242</v>
+      </c>
+      <c r="O40" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>253</v>
+      </c>
+      <c r="J41" t="s">
+        <v>254</v>
+      </c>
+      <c r="K41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
+        <v>256</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>257</v>
+      </c>
+      <c r="O41" t="s">
+        <v>73</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>260</v>
+      </c>
+      <c r="J42" t="s">
+        <v>261</v>
+      </c>
+      <c r="K42" t="s">
+        <v>262</v>
+      </c>
+      <c r="L42" t="s">
+        <v>263</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>264</v>
+      </c>
+      <c r="O42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>266</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>267</v>
+      </c>
+      <c r="J43" t="s">
+        <v>268</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>264</v>
+      </c>
+      <c r="O43" t="s">
+        <v>105</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>269</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>270</v>
+      </c>
+      <c r="J44" t="s">
+        <v>271</v>
+      </c>
+      <c r="K44" t="s">
+        <v>272</v>
+      </c>
+      <c r="L44" t="s">
+        <v>273</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>274</v>
+      </c>
+      <c r="O44" t="s">
+        <v>105</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>276</v>
+      </c>
+      <c r="J45" t="s">
+        <v>277</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>241</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>274</v>
+      </c>
+      <c r="O45" t="s">
+        <v>105</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>278</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>279</v>
+      </c>
+      <c r="J46" t="s">
+        <v>280</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>274</v>
+      </c>
+      <c r="O46" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>282</v>
+      </c>
+      <c r="J47" t="s">
+        <v>283</v>
+      </c>
+      <c r="K47" t="s">
+        <v>284</v>
+      </c>
+      <c r="L47" t="s">
+        <v>285</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>274</v>
+      </c>
+      <c r="O47" t="s">
+        <v>92</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>286</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>287</v>
+      </c>
+      <c r="J48" t="s">
+        <v>288</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>289</v>
+      </c>
+      <c r="O48" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>290</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>291</v>
+      </c>
+      <c r="J49" t="s">
+        <v>292</v>
+      </c>
+      <c r="K49" t="s">
+        <v>293</v>
+      </c>
+      <c r="L49" t="s">
+        <v>294</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>289</v>
+      </c>
+      <c r="O49" t="s">
+        <v>105</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>295</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>296</v>
+      </c>
+      <c r="J50" t="s">
+        <v>297</v>
+      </c>
+      <c r="K50" t="s">
+        <v>298</v>
+      </c>
+      <c r="L50" t="s">
+        <v>299</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>300</v>
+      </c>
+      <c r="O50" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J51" t="s">
+        <v>303</v>
+      </c>
+      <c r="K51" t="s">
+        <v>304</v>
+      </c>
+      <c r="L51" t="s">
+        <v>305</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>300</v>
+      </c>
+      <c r="O51" t="s">
+        <v>73</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>306</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>307</v>
+      </c>
+      <c r="J52" t="s">
+        <v>308</v>
+      </c>
+      <c r="K52" t="s">
+        <v>309</v>
+      </c>
+      <c r="L52" t="s">
+        <v>310</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>300</v>
+      </c>
+      <c r="O52" t="s">
+        <v>105</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>311</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>312</v>
+      </c>
+      <c r="J53" t="s">
+        <v>313</v>
+      </c>
+      <c r="K53" t="s">
+        <v>314</v>
+      </c>
+      <c r="L53" t="s">
+        <v>315</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>316</v>
+      </c>
+      <c r="O53" t="s">
+        <v>73</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>317</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>318</v>
+      </c>
+      <c r="J54" t="s">
+        <v>319</v>
+      </c>
+      <c r="K54" t="s">
+        <v>320</v>
+      </c>
+      <c r="L54" t="s">
+        <v>321</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>322</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>323</v>
+      </c>
+      <c r="J55" t="s">
+        <v>319</v>
+      </c>
+      <c r="K55" t="s">
+        <v>324</v>
+      </c>
+      <c r="L55" t="s">
+        <v>325</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>316</v>
+      </c>
+      <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>327</v>
+      </c>
+      <c r="J56" t="s">
+        <v>328</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>329</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>330</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>331</v>
+      </c>
+      <c r="J57" t="s">
+        <v>332</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>329</v>
+      </c>
+      <c r="O57" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>333</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>334</v>
+      </c>
+      <c r="J58" t="s">
+        <v>335</v>
+      </c>
+      <c r="K58" t="s">
+        <v>336</v>
+      </c>
+      <c r="L58" t="s">
+        <v>337</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>329</v>
+      </c>
+      <c r="O58" t="s">
+        <v>92</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>338</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>339</v>
+      </c>
+      <c r="J59" t="s">
+        <v>340</v>
+      </c>
+      <c r="K59" t="s">
+        <v>341</v>
+      </c>
+      <c r="L59" t="s">
+        <v>342</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>343</v>
+      </c>
+      <c r="O59" t="s">
+        <v>73</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>344</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>345</v>
+      </c>
+      <c r="J60" t="s">
+        <v>346</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s">
+        <v>241</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>343</v>
+      </c>
+      <c r="O60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>347</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>348</v>
+      </c>
+      <c r="J61" t="s">
+        <v>349</v>
+      </c>
+      <c r="K61" t="s">
+        <v>350</v>
+      </c>
+      <c r="L61" t="s">
+        <v>351</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>352</v>
+      </c>
+      <c r="O61" t="s">
+        <v>105</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>354</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>355</v>
+      </c>
+      <c r="J62" t="s">
+        <v>356</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>352</v>
+      </c>
+      <c r="O62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>357</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>358</v>
+      </c>
+      <c r="J63" t="s">
+        <v>359</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>360</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>361</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>362</v>
+      </c>
+      <c r="J64" t="s">
+        <v>363</v>
+      </c>
+      <c r="K64" t="s">
+        <v>364</v>
+      </c>
+      <c r="L64" t="s">
+        <v>365</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>366</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>367</v>
+      </c>
+      <c r="J65" t="s">
+        <v>368</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>369</v>
+      </c>
+      <c r="O65" t="s">
+        <v>56</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>370</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>371</v>
+      </c>
+      <c r="J66" t="s">
+        <v>372</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>373</v>
+      </c>
+      <c r="O66" t="s">
+        <v>73</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>374</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>375</v>
+      </c>
+      <c r="J67" t="s">
+        <v>376</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>373</v>
+      </c>
+      <c r="O67" t="s">
+        <v>105</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>377</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>378</v>
+      </c>
+      <c r="J68" t="s">
+        <v>379</v>
+      </c>
+      <c r="K68" t="s">
+        <v>380</v>
+      </c>
+      <c r="L68" t="s">
+        <v>381</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>382</v>
+      </c>
+      <c r="O68" t="s">
+        <v>73</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>383</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>384</v>
+      </c>
+      <c r="J69" t="s">
+        <v>385</v>
+      </c>
+      <c r="K69" t="s">
+        <v>386</v>
+      </c>
+      <c r="L69" t="s">
+        <v>387</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>382</v>
+      </c>
+      <c r="O69" t="s">
+        <v>105</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>389</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>390</v>
+      </c>
+      <c r="J70" t="s">
+        <v>391</v>
+      </c>
+      <c r="K70" t="s">
+        <v>392</v>
+      </c>
+      <c r="L70" t="s">
+        <v>393</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>394</v>
+      </c>
+      <c r="O70" t="s">
+        <v>73</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>396</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>397</v>
+      </c>
+      <c r="J71" t="s">
+        <v>398</v>
+      </c>
+      <c r="K71" t="s">
+        <v>399</v>
+      </c>
+      <c r="L71" t="s">
+        <v>400</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>401</v>
+      </c>
+      <c r="O71" t="s">
+        <v>73</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>402</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>403</v>
+      </c>
+      <c r="J72" t="s">
+        <v>404</v>
+      </c>
+      <c r="K72" t="s">
+        <v>405</v>
+      </c>
+      <c r="L72" t="s">
+        <v>406</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>407</v>
+      </c>
+      <c r="O72" t="s">
+        <v>105</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>408</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>409</v>
+      </c>
+      <c r="J73" t="s">
+        <v>410</v>
+      </c>
+      <c r="K73" t="s">
+        <v>411</v>
+      </c>
+      <c r="L73" t="s">
+        <v>412</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>413</v>
+      </c>
+      <c r="O73" t="s">
+        <v>73</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>414</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>415</v>
+      </c>
+      <c r="J74" t="s">
+        <v>416</v>
+      </c>
+      <c r="K74" t="s">
+        <v>417</v>
+      </c>
+      <c r="L74" t="s">
+        <v>418</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>419</v>
+      </c>
+      <c r="O74" t="s">
+        <v>73</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>421</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>422</v>
+      </c>
+      <c r="J75" t="s">
+        <v>423</v>
+      </c>
+      <c r="K75" t="s">
+        <v>424</v>
+      </c>
+      <c r="L75" t="s">
+        <v>425</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>426</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>427</v>
+      </c>
+      <c r="J76" t="s">
+        <v>428</v>
+      </c>
+      <c r="K76" t="s">
+        <v>429</v>
+      </c>
+      <c r="L76" t="s">
+        <v>430</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>431</v>
+      </c>
+      <c r="O76" t="s">
+        <v>56</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>432</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>433</v>
+      </c>
+      <c r="J77" t="s">
+        <v>434</v>
+      </c>
+      <c r="K77" t="s">
+        <v>435</v>
+      </c>
+      <c r="L77" t="s">
+        <v>436</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>437</v>
+      </c>
+      <c r="O77" t="s">
+        <v>105</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>438</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>439</v>
+      </c>
+      <c r="J78" t="s">
+        <v>440</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>437</v>
+      </c>
+      <c r="O78" t="s">
+        <v>105</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>441</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>442</v>
+      </c>
+      <c r="J79" t="s">
+        <v>443</v>
+      </c>
+      <c r="K79" t="s">
+        <v>444</v>
+      </c>
+      <c r="L79" t="s">
+        <v>445</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>431</v>
+      </c>
+      <c r="O79" t="s">
+        <v>92</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>446</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>447</v>
+      </c>
+      <c r="J80" t="s">
+        <v>448</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>449</v>
+      </c>
+      <c r="O80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>450</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>451</v>
+      </c>
+      <c r="J81" t="s">
+        <v>452</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>453</v>
+      </c>
+      <c r="O81" t="s">
+        <v>73</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>454</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>455</v>
+      </c>
+      <c r="J82" t="s">
+        <v>456</v>
+      </c>
+      <c r="K82" t="s">
+        <v>457</v>
+      </c>
+      <c r="L82" t="s">
+        <v>458</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>459</v>
+      </c>
+      <c r="O82" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>460</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>461</v>
+      </c>
+      <c r="J83" t="s">
+        <v>462</v>
+      </c>
+      <c r="K83" t="s">
+        <v>463</v>
+      </c>
+      <c r="L83" t="s">
+        <v>464</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>465</v>
+      </c>
+      <c r="O83" t="s">
+        <v>73</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>466</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>467</v>
+      </c>
+      <c r="J84" t="s">
+        <v>462</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>465</v>
+      </c>
+      <c r="O84" t="s">
+        <v>73</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>468</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>469</v>
+      </c>
+      <c r="J85" t="s">
+        <v>462</v>
+      </c>
+      <c r="K85" t="s">
+        <v>470</v>
+      </c>
+      <c r="L85" t="s">
+        <v>471</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>465</v>
+      </c>
+      <c r="O85" t="s">
+        <v>92</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>472</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>473</v>
+      </c>
+      <c r="J86" t="s">
+        <v>474</v>
+      </c>
+      <c r="K86" t="s">
+        <v>475</v>
+      </c>
+      <c r="L86" t="s">
+        <v>476</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>477</v>
+      </c>
+      <c r="O86" t="s">
+        <v>105</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>478</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>479</v>
+      </c>
+      <c r="J87" t="s">
+        <v>480</v>
+      </c>
+      <c r="K87" t="s">
+        <v>481</v>
+      </c>
+      <c r="L87" t="s">
+        <v>482</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>477</v>
+      </c>
+      <c r="O87" t="s">
+        <v>73</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>483</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>484</v>
+      </c>
+      <c r="J88" t="s">
+        <v>485</v>
+      </c>
+      <c r="K88" t="s">
+        <v>486</v>
+      </c>
+      <c r="L88" t="s">
+        <v>487</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>488</v>
+      </c>
+      <c r="O88" t="s">
+        <v>56</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>489</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>490</v>
+      </c>
+      <c r="J89" t="s">
+        <v>491</v>
+      </c>
+      <c r="K89" t="s">
+        <v>492</v>
+      </c>
+      <c r="L89" t="s">
+        <v>493</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>494</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>495</v>
+      </c>
+      <c r="J90" t="s">
+        <v>496</v>
+      </c>
+      <c r="K90" t="s">
+        <v>497</v>
+      </c>
+      <c r="L90" t="s">
+        <v>498</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>29642</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>499</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>500</v>
+      </c>
+      <c r="J91" t="s">
+        <v>501</v>
+      </c>
+      <c r="K91" t="s">
+        <v>502</v>
+      </c>
+      <c r="L91" t="s">
+        <v>503</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>504</v>
+      </c>
+      <c r="O91" t="s">
+        <v>73</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>
